--- a/exl_comments.xlsx
+++ b/exl_comments.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">wow </t>
   </si>
@@ -43,6 +43,42 @@
   </si>
   <si>
     <t xml:space="preserve">nice betam</t>
+  </si>
+  <si>
+    <t>huuuuuuu</t>
+  </si>
+  <si>
+    <t>lovely</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>kikikikik</t>
+  </si>
+  <si>
+    <t>intersting</t>
+  </si>
+  <si>
+    <t>ohhhhhhhh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surpise </t>
+  </si>
+  <si>
+    <t>hehehhe</t>
+  </si>
+  <si>
+    <t>heeeeeeeeeeeeeeeeee</t>
+  </si>
+  <si>
+    <t>hehehehehe</t>
+  </si>
+  <si>
+    <t>ehhhhhhhhhh</t>
+  </si>
+  <si>
+    <t>ehehehe</t>
   </si>
 </sst>
 </file>
@@ -645,10 +681,75 @@
         <v>9</v>
       </c>
     </row>
+    <row r="11" ht="14.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>